--- a/source_plates/221101_arpae_plasmids_updated.xlsx
+++ b/source_plates/221101_arpae_plasmids_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>New Volume</t>
         </is>
       </c>
@@ -491,11 +496,12 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>30.075</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>27.075,</t>
+        <v>60</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>56.7,</t>
         </is>
       </c>
     </row>
@@ -522,11 +528,12 @@
         <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>61.25</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>60.95,</t>
+        <v>60.95</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>60.800000000000004,</t>
         </is>
       </c>
     </row>
@@ -553,11 +560,12 @@
         <v>44.1</v>
       </c>
       <c r="F4" t="n">
-        <v>50.05</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>49.699999999999996,</t>
+        <v>49.6999999999999</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>49.4499999999999,</t>
         </is>
       </c>
     </row>
@@ -584,11 +592,12 @@
         <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>56.9499999999999</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>55.9499999999999,</t>
+        <v>55.9499999999999</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>55.149999999999906,</t>
         </is>
       </c>
     </row>
@@ -617,7 +626,8 @@
       <c r="F6" t="n">
         <v>35.15</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>35.15,</t>
         </is>
@@ -646,9 +656,10 @@
         <v>47.08</v>
       </c>
       <c r="F7" t="n">
-        <v>46.775</v>
-      </c>
-      <c r="G7" t="inlineStr">
+        <v>46.475</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>46.475,</t>
         </is>
@@ -677,11 +688,12 @@
         <v>4.708</v>
       </c>
       <c r="F8" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>59.400000000000006,</t>
+        <v>59.4</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>58.8,</t>
         </is>
       </c>
     </row>
@@ -708,11 +720,12 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>57.300000000000004,</t>
+        <v>57.3</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>56.925,</t>
         </is>
       </c>
     </row>
@@ -739,11 +752,12 @@
         <v>75</v>
       </c>
       <c r="F10" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>22.400000000000002,</t>
+        <v>22.4</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>22.299999999999997,</t>
         </is>
       </c>
     </row>
@@ -770,11 +784,172 @@
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>59.599999999999994,</t>
+        <v>59.5999999999999</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>59.3999999999999,</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SHMT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SHMT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>59.05,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ICL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ICL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>39.8,</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>55</v>
+      </c>
+      <c r="F14" t="n">
+        <v>60</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>59.45,</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ACS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ACS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P13</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>59.825,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Chi6</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chi6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P14</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>22.9,</t>
         </is>
       </c>
     </row>
